--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelishka\Documents\repositorios\cuervo\shiny\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelishka\Documents\repositorios\cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5683D47-0B1A-4023-B485-A0F9B9201E5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CEB44-BD84-4CE6-9378-27A7710C52D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
+    <workbookView minimized="1" xWindow="645" yWindow="6795" windowWidth="28770" windowHeight="8565" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>row_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_fin</t>
+  </si>
+  <si>
+    <t>usa_fin</t>
+  </si>
+  <si>
+    <t>row_fin</t>
   </si>
 </sst>
 </file>
@@ -567,19 +576,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281DBE1-B0B0-447D-85C8-D5FA6B29FE3C}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,52 +599,61 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -646,52 +664,61 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,25 +731,28 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="M3" s="1" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,17 +765,20 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="M4" s="1"/>
-      <c r="Q4" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="P4" s="1"/>
+      <c r="T4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -758,11 +791,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,19 +808,22 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M10" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelishka\Documents\repositorios\cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CEB44-BD84-4CE6-9378-27A7710C52D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75312AC9-B269-4193-8E83-546CF28CD880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="645" yWindow="6795" windowWidth="28770" windowHeight="8565" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
+    <workbookView xWindow="30" yWindow="1950" windowWidth="28770" windowHeight="8565" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -153,28 +153,43 @@
     <t>Fe.Orig.Pref</t>
   </si>
   <si>
+    <t>Fecha Disponibilidad</t>
+  </si>
+  <si>
+    <t>domestico_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>usa_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>row_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_fin</t>
+  </si>
+  <si>
+    <t>usa_fin</t>
+  </si>
+  <si>
+    <t>row_fin</t>
+  </si>
+  <si>
+    <t>formula=+5</t>
+  </si>
+  <si>
     <t>Fe.Pre.Entr.</t>
   </si>
   <si>
-    <t>Fecha Disponibilidad</t>
-  </si>
-  <si>
-    <t>domestico_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>usa_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>row_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>domestico_fin</t>
-  </si>
-  <si>
-    <t>usa_fin</t>
-  </si>
-  <si>
-    <t>row_fin</t>
+    <t>domestico_benchmark_formula</t>
+  </si>
+  <si>
+    <t>domestico_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>usa_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>row_cantidad_benchmark</t>
   </si>
 </sst>
 </file>
@@ -576,19 +591,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281DBE1-B0B0-447D-85C8-D5FA6B29FE3C}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,61 +618,73 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -673,52 +704,64 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -734,25 +777,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="P3" s="1" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -768,17 +815,21 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="P4" s="1"/>
-      <c r="T4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="T4" s="1"/>
+      <c r="X4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -794,11 +845,15 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,19 +866,24 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P10" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pelishka\Documents\repositorios\cuervo\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelam\Documents\repositorios\cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75312AC9-B269-4193-8E83-546CF28CD880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A014E-0CB5-43BB-ACFA-6094B2CA3073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1950" windowWidth="28770" windowHeight="8565" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>CJ 9L</t>
   </si>
   <si>
-    <t>Cliente Destinatario...30</t>
-  </si>
-  <si>
     <t>Pedido SAP</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>row_carpeta</t>
   </si>
   <si>
-    <t>Oficina de Ventas...4</t>
-  </si>
-  <si>
     <t>País</t>
   </si>
   <si>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>row_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>Oficina de Ventas..4</t>
+  </si>
+  <si>
+    <t>Cliente Destinatario..30</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281DBE1-B0B0-447D-85C8-D5FA6B29FE3C}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,25 +618,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -648,22 +648,22 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
       </c>
       <c r="T1" t="s">
         <v>14</v>
@@ -675,13 +675,13 @@
         <v>18</v>
       </c>
       <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>29</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -704,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -728,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>24</v>
@@ -743,22 +743,22 @@
         <v>4</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -790,13 +790,13 @@
         <v>15</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -817,7 +817,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -826,12 +826,12 @@
       <c r="P4" s="3"/>
       <c r="T4" s="1"/>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelam\Documents\repositorios\cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A014E-0CB5-43BB-ACFA-6094B2CA3073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF014D-A1E0-49D6-909D-A91227F3C624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281DBE1-B0B0-447D-85C8-D5FA6B29FE3C}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelam\Documents\repositorios\cuervo\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF014D-A1E0-49D6-909D-A91227F3C624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0060572-36EF-47A7-8C38-A430AFA1B813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{727C43C5-BCE5-4B0D-93A1-D5851317154D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -42,178 +36,210 @@
     <t>row_fechas</t>
   </si>
   <si>
+    <t>domestico_fin</t>
+  </si>
+  <si>
+    <t>usa_fin</t>
+  </si>
+  <si>
+    <t>row_fin</t>
+  </si>
+  <si>
+    <t>domestico_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_benchmark_formula</t>
+  </si>
+  <si>
+    <t>usa_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>row_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_cantidades</t>
+  </si>
+  <si>
+    <t>usa_cantidades</t>
+  </si>
+  <si>
+    <t>row_cantidades</t>
+  </si>
+  <si>
+    <t>usa_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>row_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_carpeta</t>
+  </si>
+  <si>
+    <t>usa_carpeta</t>
+  </si>
+  <si>
+    <t>row_carpeta</t>
+  </si>
+  <si>
+    <t>domestico_filtros</t>
+  </si>
+  <si>
+    <t>usa_filtros</t>
+  </si>
+  <si>
+    <t>row_filtros</t>
+  </si>
+  <si>
+    <t>domestico_pedido</t>
+  </si>
+  <si>
+    <t>usa_pedido</t>
+  </si>
+  <si>
+    <t>row_pedido</t>
+  </si>
+  <si>
+    <t>row_aux_carpetas</t>
+  </si>
+  <si>
+    <t>row_aux_x</t>
+  </si>
+  <si>
+    <t>row_aux_y</t>
+  </si>
+  <si>
+    <t>Fe.Creación</t>
+  </si>
+  <si>
+    <t>Fecha Pedido</t>
+  </si>
+  <si>
+    <t>Acuse</t>
+  </si>
+  <si>
+    <t>Fec. Entrega a Cte.</t>
+  </si>
+  <si>
+    <t>Fecha Carga</t>
+  </si>
+  <si>
+    <t>Fe.Pre.Entr.</t>
+  </si>
+  <si>
+    <t>formula=+5</t>
+  </si>
+  <si>
+    <t>Fe.Orig.Pref</t>
+  </si>
+  <si>
+    <t>Ctd. Ped. Cj. 9 Lit</t>
+  </si>
+  <si>
+    <t>CJ 9L</t>
+  </si>
+  <si>
+    <t>Ctd.Factura 9Lit</t>
+  </si>
+  <si>
     <t>zsdr159</t>
   </si>
   <si>
     <t>zsdr141</t>
   </si>
   <si>
-    <t>Fe.Creación</t>
+    <t>Oficina de Ventas..4</t>
+  </si>
+  <si>
+    <t>Cliente Destinatario..30</t>
+  </si>
+  <si>
+    <t>Nombre Región</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Pedido SAP</t>
+  </si>
+  <si>
+    <t>zsdr184</t>
+  </si>
+  <si>
+    <t>Fe.Factura</t>
+  </si>
+  <si>
+    <t>Fecha Captura SAP</t>
+  </si>
+  <si>
+    <t>Ctd. Entrega 9Lit</t>
+  </si>
+  <si>
+    <t>Gpo.Clientes</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Zona de ventas</t>
   </si>
   <si>
     <t>Fecha Are</t>
   </si>
   <si>
-    <t>Fe.Factura</t>
-  </si>
-  <si>
-    <t>Fecha Carga</t>
-  </si>
-  <si>
-    <t>Fecha Pedido</t>
-  </si>
-  <si>
-    <t>Fecha Captura SAP</t>
+    <t>Fecha Disponibilidad</t>
+  </si>
+  <si>
+    <t>Fecha factura</t>
   </si>
   <si>
     <t>Fecha Planeación Transporte</t>
   </si>
   <si>
-    <t>Fec. Entrega a Cte.</t>
-  </si>
-  <si>
-    <t>Fecha factura</t>
-  </si>
-  <si>
-    <t>domestico_filtros</t>
-  </si>
-  <si>
-    <t>Gpo.Clientes</t>
-  </si>
-  <si>
-    <t>usa_filtros</t>
-  </si>
-  <si>
-    <t>Nombre Región</t>
-  </si>
-  <si>
-    <t>row_filtros</t>
-  </si>
-  <si>
-    <t>domestico_cantidades</t>
-  </si>
-  <si>
-    <t>usa_cantidades</t>
-  </si>
-  <si>
-    <t>row_cantidades</t>
-  </si>
-  <si>
-    <t>Ctd. Ped. Cj. 9 Lit</t>
-  </si>
-  <si>
-    <t>Ctd. Entrega 9Lit</t>
-  </si>
-  <si>
-    <t>CJ 9L</t>
-  </si>
-  <si>
-    <t>Pedido SAP</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>domestico_pedido</t>
-  </si>
-  <si>
-    <t>usa_pedido</t>
-  </si>
-  <si>
-    <t>row_pedido</t>
-  </si>
-  <si>
-    <t>domestico_carpeta</t>
-  </si>
-  <si>
-    <t>usa_carpeta</t>
-  </si>
-  <si>
-    <t>row_carpeta</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Zona de ventas</t>
-  </si>
-  <si>
-    <t>Ctd.Factura 9Lit</t>
-  </si>
-  <si>
-    <t>Acuse</t>
-  </si>
-  <si>
-    <t>Fe.Orig.Pref</t>
-  </si>
-  <si>
-    <t>Fecha Disponibilidad</t>
-  </si>
-  <si>
-    <t>domestico_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>usa_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>row_fechas_benchmark</t>
-  </si>
-  <si>
-    <t>domestico_fin</t>
-  </si>
-  <si>
-    <t>usa_fin</t>
-  </si>
-  <si>
-    <t>row_fin</t>
-  </si>
-  <si>
-    <t>formula=+5</t>
-  </si>
-  <si>
-    <t>Fe.Pre.Entr.</t>
-  </si>
-  <si>
-    <t>domestico_benchmark_formula</t>
-  </si>
-  <si>
-    <t>domestico_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t>usa_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t>row_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t>Oficina de Ventas..4</t>
-  </si>
-  <si>
-    <t>Cliente Destinatario..30</t>
+    <t>usa_aux_carpetas</t>
+  </si>
+  <si>
+    <t>usa_aux_x</t>
+  </si>
+  <si>
+    <t>usa_aux_y</t>
+  </si>
+  <si>
+    <t>Pedido SAP::Material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF339999"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,8 +251,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -240,16 +266,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,22 +283,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -283,6 +310,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339999"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,24 +685,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281DBE1-B0B0-447D-85C8-D5FA6B29FE3C}">
-  <dimension ref="A1:Y12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="17" max="1019" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,158 +716,194 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -779,35 +913,35 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="6"/>
       <c r="T3" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -817,77 +951,77 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="T4" s="1"/>
       <c r="X4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="T10" s="5"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="T10" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0060572-36EF-47A7-8C38-A430AFA1B813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85C3AA-6301-40D3-9EDA-ABAEDB537445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -150,12 +150,6 @@
     <t>zsdr141</t>
   </si>
   <si>
-    <t>Oficina de Ventas..4</t>
-  </si>
-  <si>
-    <t>Cliente Destinatario..30</t>
-  </si>
-  <si>
     <t>Nombre Región</t>
   </si>
   <si>
@@ -207,7 +201,22 @@
     <t>usa_aux_y</t>
   </si>
   <si>
-    <t>Pedido SAP::Material</t>
+    <t>Pedido::Material</t>
+  </si>
+  <si>
+    <t>Ctd. Ped.</t>
+  </si>
+  <si>
+    <t>Cajas Naturales</t>
+  </si>
+  <si>
+    <t>Pedido SAP::Código SAP</t>
+  </si>
+  <si>
+    <t>Cliente Destinatario...30</t>
+  </si>
+  <si>
+    <t>Oficina de Ventas...4</t>
   </si>
 </sst>
 </file>
@@ -688,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" t="s">
         <v>57</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>59</v>
       </c>
       <c r="AC1" t="s">
         <v>25</v>
@@ -859,51 +868,51 @@
         <v>40</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="AA2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="AD2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -913,35 +922,37 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="1"/>
       <c r="P3" s="6"/>
       <c r="T3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
         <v>50</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -954,13 +965,15 @@
         <v>38</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="T4" s="1"/>
       <c r="X4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -968,10 +981,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85C3AA-6301-40D3-9EDA-ABAEDB537445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998605A-543D-4B19-951B-E508CCED0AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,8 +846,8 @@
       <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
+      <c r="M2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>37</v>
@@ -856,7 +856,7 @@
         <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
         <v>39</v>
@@ -925,8 +925,8 @@
         <v>47</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6" t="s">
-        <v>59</v>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="1"/>
@@ -995,7 +995,6 @@
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998605A-543D-4B19-951B-E508CCED0AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83849629-1178-45A7-AAED-F845F3E11667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Oficina de Ventas...4</t>
+  </si>
+  <si>
+    <t>domestico_aux_carpetas</t>
+  </si>
+  <si>
+    <t>domestico_aux_x</t>
+  </si>
+  <si>
+    <t>domestico_aux_y</t>
   </si>
 </sst>
 </file>
@@ -695,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +723,7 @@
     <col min="17" max="1019" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,25 +800,34 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -885,15 +903,9 @@
       <c r="Y2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
       <c r="AC2" s="1" t="s">
         <v>44</v>
       </c>
@@ -903,8 +915,17 @@
       <c r="AE2" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="AF2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -925,8 +946,8 @@
         <v>47</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="1"/>
@@ -944,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -965,8 +986,8 @@
         <v>38</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
-        <v>60</v>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -976,7 +997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -999,7 +1020,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1017,19 +1038,19 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="T10" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83849629-1178-45A7-AAED-F845F3E11667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83705D7-DEBB-4DAA-A974-31DE320E132F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,9 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -720,7 +718,9 @@
     <col min="14" max="14" width="23.7109375" customWidth="1"/>
     <col min="15" max="15" width="30.140625" customWidth="1"/>
     <col min="16" max="16" width="24.140625" customWidth="1"/>
-    <col min="17" max="1019" width="22.5703125" customWidth="1"/>
+    <col min="17" max="20" width="22.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28" customWidth="1"/>
+    <col min="22" max="1019" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Cuervo\datos\setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83705D7-DEBB-4DAA-A974-31DE320E132F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CED14-2670-4705-9C8A-C07AE2C46BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>domestico_fechas</t>
   </si>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -706,24 +706,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" customWidth="1"/>
-    <col min="17" max="20" width="22.5703125" customWidth="1"/>
+    <col min="1" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" customWidth="1"/>
+    <col min="16" max="16" width="24.109375" customWidth="1"/>
+    <col min="17" max="20" width="22.5546875" customWidth="1"/>
     <col min="21" max="21" width="28" customWidth="1"/>
-    <col min="22" max="1019" width="22.5703125" customWidth="1"/>
+    <col min="22" max="1019" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -861,14 +863,14 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
+      <c r="L2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>38</v>
@@ -925,7 +927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -945,7 +947,9 @@
       <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="M3" s="6" t="s">
         <v>60</v>
       </c>
@@ -965,7 +969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -985,7 +989,9 @@
       <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1026,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1038,19 +1044,19 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T10" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
   </sheetData>

--- a/datos/setup/parametros.xlsx
+++ b/datos/setup/parametros.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shared\P\Cuervo\shiny\datos\setup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893178BC-046D-4A8D-A5B5-120DB20A1D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,235 +25,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
-  <si>
-    <t xml:space="preserve">domestico_fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_fechas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_fechas_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_benchmark_formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_fechas_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_fechas_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_cantidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_cantidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_cantidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_cantidad_benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_carpeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_carpeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_carpeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_filtros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_filtros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_filtros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_aux_carpetas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_aux_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domestico_aux_y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_aux_carpetas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_aux_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usa_aux_y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_aux_carpetas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_aux_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_aux_y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe.Creación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fec. Entrega a Cte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Carga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe.Pre.Entr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formula=+5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe.Orig.Pref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctd. Ped. Cj. Nat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctd. Ped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cajas Naturales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctd.Factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zsdr159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zsdr141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina de Ventas...4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente Destinatario...30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Región</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zsdr184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido SAP::Código SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido::Material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe.Factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Captura SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ctd. a entregar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gpo.Clientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">País</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zona de ventas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Are</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Disponibilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha factura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha Planeación Transporte</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+  <si>
+    <t>domestico_fechas</t>
+  </si>
+  <si>
+    <t>usa_fechas</t>
+  </si>
+  <si>
+    <t>row_fechas</t>
+  </si>
+  <si>
+    <t>domestico_fin</t>
+  </si>
+  <si>
+    <t>usa_fin</t>
+  </si>
+  <si>
+    <t>row_fin</t>
+  </si>
+  <si>
+    <t>domestico_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_benchmark_formula</t>
+  </si>
+  <si>
+    <t>usa_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>row_fechas_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_cantidades</t>
+  </si>
+  <si>
+    <t>usa_cantidades</t>
+  </si>
+  <si>
+    <t>row_cantidades</t>
+  </si>
+  <si>
+    <t>usa_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>row_cantidad_benchmark</t>
+  </si>
+  <si>
+    <t>domestico_carpeta</t>
+  </si>
+  <si>
+    <t>usa_carpeta</t>
+  </si>
+  <si>
+    <t>row_carpeta</t>
+  </si>
+  <si>
+    <t>domestico_filtros</t>
+  </si>
+  <si>
+    <t>usa_filtros</t>
+  </si>
+  <si>
+    <t>row_filtros</t>
+  </si>
+  <si>
+    <t>domestico_pedido</t>
+  </si>
+  <si>
+    <t>usa_pedido</t>
+  </si>
+  <si>
+    <t>row_pedido</t>
+  </si>
+  <si>
+    <t>domestico_aux_carpetas</t>
+  </si>
+  <si>
+    <t>domestico_aux_x</t>
+  </si>
+  <si>
+    <t>domestico_aux_y</t>
+  </si>
+  <si>
+    <t>usa_aux_carpetas</t>
+  </si>
+  <si>
+    <t>usa_aux_x</t>
+  </si>
+  <si>
+    <t>usa_aux_y</t>
+  </si>
+  <si>
+    <t>row_aux_carpetas</t>
+  </si>
+  <si>
+    <t>row_aux_x</t>
+  </si>
+  <si>
+    <t>row_aux_y</t>
+  </si>
+  <si>
+    <t>Fe.Creación</t>
+  </si>
+  <si>
+    <t>Fecha Pedido</t>
+  </si>
+  <si>
+    <t>Acuse</t>
+  </si>
+  <si>
+    <t>Fec. Entrega a Cte.</t>
+  </si>
+  <si>
+    <t>Fecha Carga</t>
+  </si>
+  <si>
+    <t>Fe.Pre.Entr.</t>
+  </si>
+  <si>
+    <t>formula=+5</t>
+  </si>
+  <si>
+    <t>Fe.Orig.Pref</t>
+  </si>
+  <si>
+    <t>Ctd. Ped. Cj. Nat.</t>
+  </si>
+  <si>
+    <t>Ctd. Ped.</t>
+  </si>
+  <si>
+    <t>Cajas Naturales</t>
+  </si>
+  <si>
+    <t>Ctd.Factura</t>
+  </si>
+  <si>
+    <t>zsdr159</t>
+  </si>
+  <si>
+    <t>zsdr141</t>
+  </si>
+  <si>
+    <t>Oficina de Ventas...4</t>
+  </si>
+  <si>
+    <t>Cliente Destinatario...30</t>
+  </si>
+  <si>
+    <t>Nombre Región</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Pedido SAP</t>
+  </si>
+  <si>
+    <t>zsdr184</t>
+  </si>
+  <si>
+    <t>Pedido SAP::Código SAP</t>
+  </si>
+  <si>
+    <t>Pedido::Material</t>
+  </si>
+  <si>
+    <t>Fe.Factura</t>
+  </si>
+  <si>
+    <t>Fecha Captura SAP</t>
+  </si>
+  <si>
+    <t>Ctd. a entregar</t>
+  </si>
+  <si>
+    <t>Gpo.Clientes</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Zona de ventas</t>
+  </si>
+  <si>
+    <t>Fecha Are</t>
+  </si>
+  <si>
+    <t>Fecha Disponibilidad</t>
+  </si>
+  <si>
+    <t>Fecha factura</t>
+  </si>
+  <si>
+    <t>Fecha Planeación Transporte</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Zona_de_Ventas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -267,7 +260,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -286,88 +278,59 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -426,144 +389,452 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="22" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="8.89"/>
+    <col min="1" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="17" max="20" width="22.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28" customWidth="1"/>
+    <col min="22" max="1019" width="22.5703125" customWidth="1"/>
+    <col min="1020" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -584,7 +855,7 @@
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -611,13 +882,13 @@
       <c r="P2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -660,7 +931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -692,17 +963,17 @@
       <c r="T3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" t="s">
         <v>60</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -727,12 +998,14 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="T4" s="1"/>
-      <c r="X4" s="0" t="s">
+      <c r="T4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -754,8 +1027,11 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
@@ -773,28 +1049,23 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="T10" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>